--- a/output_1/all_schools_combined.xlsx
+++ b/output_1/all_schools_combined.xlsx
@@ -660,9 +660,7 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>4777</v>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -672,7 +670,7 @@
         <v>4235</v>
       </c>
       <c r="R3" t="n">
-        <v>10459</v>
+        <v>9459</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="n">
@@ -722,9 +720,7 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>460331</v>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -833,13 +829,19 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>4310</v>
+      </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
+      <c r="U6" t="n">
+        <v>3826</v>
+      </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
+      <c r="X6" t="n">
+        <v>1461</v>
+      </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
@@ -928,27 +930,27 @@
           <t>2024‑2025</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>6975</v>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>13437</v>
+      </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>20412</v>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
-        <v>6975</v>
-      </c>
-      <c r="O8" t="n">
-        <v>13437</v>
-      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="n">
-        <v>20412</v>
-      </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
         <v>54008</v>
       </c>
@@ -996,15 +998,9 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>7820</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5433</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2387</v>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
@@ -1065,13 +1061,23 @@
         <v>1735</v>
       </c>
       <c r="E10" t="n">
-        <v>95</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+        <v>188</v>
+      </c>
+      <c r="F10" t="n">
+        <v>127</v>
+      </c>
+      <c r="G10" t="n">
+        <v>146</v>
+      </c>
+      <c r="H10" t="n">
+        <v>71</v>
+      </c>
+      <c r="I10" t="n">
+        <v>133</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6</v>
+      </c>
       <c r="K10" t="n">
         <v>1830</v>
       </c>
@@ -1079,12 +1085,20 @@
         <v>1735</v>
       </c>
       <c r="M10" t="n">
-        <v>95</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
+        <v>188</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1830</v>
+      </c>
+      <c r="O10" t="n">
+        <v>127</v>
+      </c>
+      <c r="P10" t="n">
+        <v>133</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1830</v>
+      </c>
       <c r="R10" t="n">
         <v>6041</v>
       </c>
@@ -1100,7 +1114,9 @@
       </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
+      <c r="AA10" t="n">
+        <v>77</v>
+      </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="n">
         <v>48630</v>
@@ -1141,12 +1157,8 @@
       <c r="K11" t="n">
         <v>52089</v>
       </c>
-      <c r="L11" t="n">
-        <v>46862</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5227</v>
-      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
         <v>39442</v>
       </c>
@@ -1154,9 +1166,7 @@
         <v>9162</v>
       </c>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="n">
-        <v>48604</v>
-      </c>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
         <v>62138</v>
       </c>
@@ -1239,7 +1249,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>32986</v>
+        <v>31924</v>
       </c>
       <c r="D13" t="n">
         <v>31924</v>
@@ -1248,7 +1258,7 @@
         <v>1062</v>
       </c>
       <c r="F13" t="n">
-        <v>24418</v>
+        <v>24580</v>
       </c>
       <c r="G13" t="n">
         <v>18592</v>
@@ -1357,9 +1367,7 @@
       <c r="AC14" t="n">
         <v>12728</v>
       </c>
-      <c r="AD14" t="n">
-        <v>14738</v>
-      </c>
+      <c r="AD14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1394,9 +1402,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>14417</v>
-      </c>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
         <v>15533</v>
       </c>
@@ -1433,32 +1439,20 @@
       <c r="C16" t="n">
         <v>2778</v>
       </c>
-      <c r="D16" t="n">
-        <v>2778</v>
-      </c>
-      <c r="E16" t="n">
-        <v>339</v>
-      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
         <v>606</v>
       </c>
-      <c r="G16" t="n">
-        <v>62</v>
-      </c>
-      <c r="H16" t="n">
-        <v>544</v>
-      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
         <v>3723</v>
       </c>
-      <c r="L16" t="n">
-        <v>2840</v>
-      </c>
-      <c r="M16" t="n">
-        <v>883</v>
-      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
@@ -1581,7 +1575,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>4863</v>
+        <v>5242</v>
       </c>
       <c r="L18" t="n">
         <v>4011</v>
@@ -1736,7 +1730,9 @@
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
+      <c r="AC20" t="n">
+        <v>15148</v>
+      </c>
       <c r="AD20" t="inlineStr"/>
     </row>
     <row r="21">

--- a/output_1/all_schools_combined.xlsx
+++ b/output_1/all_schools_combined.xlsx
@@ -738,7 +738,9 @@
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
+      <c r="AC4" t="n">
+        <v>3393236</v>
+      </c>
       <c r="AD4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -930,27 +932,27 @@
           <t>2024‑2025</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>6975</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>13437</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>20412</v>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>6975</v>
+      </c>
+      <c r="O8" t="n">
+        <v>13437</v>
+      </c>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
+      <c r="Q8" t="n">
+        <v>20412</v>
+      </c>
       <c r="R8" t="n">
         <v>54008</v>
       </c>
@@ -994,8 +996,12 @@
       <c r="F9" t="n">
         <v>2685</v>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>5433</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2387</v>
+      </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -1091,7 +1097,7 @@
         <v>1830</v>
       </c>
       <c r="O10" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="P10" t="n">
         <v>133</v>
@@ -1258,7 +1264,7 @@
         <v>1062</v>
       </c>
       <c r="F13" t="n">
-        <v>24580</v>
+        <v>18592</v>
       </c>
       <c r="G13" t="n">
         <v>18592</v>
@@ -1267,7 +1273,7 @@
         <v>5832</v>
       </c>
       <c r="I13" t="n">
-        <v>3376</v>
+        <v>3346</v>
       </c>
       <c r="J13" t="n">
         <v>3949</v>
@@ -1496,9 +1502,7 @@
           <t>2024‑2025</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>165559</v>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
@@ -1508,7 +1512,9 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>165559</v>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
